--- a/MoPanda/data/core/Rel-k/MICP - 2V.xlsx
+++ b/MoPanda/data/core/Rel-k/MICP - 2V.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="30" yWindow="600" windowWidth="28770" windowHeight="15600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Original_Data" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Processed_Data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Original_Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Processed_Data" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -472,10 +472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1429,10 +1429,6 @@
       </c>
       <c r="G38">
         <f>F38^3.18</f>
-        <v/>
-      </c>
-      <c r="I38">
-        <f>(1-D38)^2*(1-D38^(3.3/1.3))</f>
         <v/>
       </c>
     </row>
@@ -1447,7 +1443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,35 +1479,20 @@
       </c>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Unnamed: 5</t>
+          <t>Capillary Pressure_Reservoir (psi)</t>
         </is>
       </c>
       <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Unnamed: 6</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>Unnamed: 7</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Capillary Pressure_Reservoir (MPa)</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Normalized Wetting-phase Saturation</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Normalized Wetting-phase Saturation_imbibition</t>
         </is>
@@ -1534,21 +1515,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.1347222222222222</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
         <v>0.0009288773888888889</v>
       </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="3">
@@ -1568,21 +1544,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.2694444444444444</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
         <v>0.001857754777777778</v>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="4">
@@ -1602,21 +1573,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.4034722222222222</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
         <v>0.002781844138888889</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="5">
@@ -1636,21 +1602,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.5381944444444444</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
         <v>0.003710721527777778</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="6">
@@ -1670,21 +1631,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.6729166666666666</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
         <v>0.004639598916666666</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="7">
@@ -1704,21 +1660,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.9444444444444445</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
         <v>0.006511717777777777</v>
       </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="8">
@@ -1738,21 +1689,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>1.208333333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
         <v>0.008331168333333331</v>
       </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="9">
@@ -1772,21 +1718,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>1.618055555555556</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
         <v>0.01115610472222222</v>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="10">
@@ -1806,21 +1747,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2.020833333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
         <v>0.01393316083333333</v>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="11">
@@ -1840,21 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2.555555555555555</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
         <v>0.01761994222222222</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="12">
@@ -1874,21 +1805,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
         <v>0.02226432916666667</v>
       </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="13">
@@ -1908,21 +1834,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>4.034722222222221</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
         <v>0.02781844138888889</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="14">
@@ -1942,21 +1863,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>4.847222222222222</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
         <v>0.03342043388888889</v>
       </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="15">
@@ -1976,21 +1892,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>6.458333333333334</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
         <v>0.04452865833333334</v>
       </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="16">
@@ -2010,21 +1921,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>8.472222222222221</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
         <v>0.05841393888888888</v>
       </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="17">
@@ -2044,21 +1950,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>10.48611111111111</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
         <v>0.07229921944444444</v>
       </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="18">
@@ -2078,21 +1979,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>13.75</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
         <v>0.09480295</v>
       </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="19">
@@ -2112,21 +2008,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>17.5</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
         <v>0.1206583</v>
       </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="20">
@@ -2146,21 +2037,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
         <v>0.1532168888888889</v>
       </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="21">
@@ -2180,21 +2066,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>28.26388888888889</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
         <v>0.1948727305555556</v>
       </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="22">
@@ -2214,21 +2095,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>36.31944444444444</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
         <v>0.2504138527777777</v>
       </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="23">
@@ -2248,21 +2124,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>46.45833333333334</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
         <v>0.3203190583333334</v>
       </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="24">
@@ -2282,21 +2153,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>59.23611111111111</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
         <v>0.4084187694444444</v>
       </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="25">
@@ -2316,21 +2182,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>75.69444444444444</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
         <v>0.5218950277777777</v>
       </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="26">
@@ -2350,21 +2211,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>96.52777777777777</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
         <v>0.6655358611111111</v>
       </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="27">
@@ -2384,21 +2240,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>122.2222222222222</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
         <v>0.8426928888888888</v>
       </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="28">
@@ -2418,21 +2269,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>156.25</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
         <v>1.07730625</v>
       </c>
-      <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="29">
@@ -2452,21 +2298,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>199.3055555555555</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
         <v>1.374163972222222</v>
       </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="30">
@@ -2486,21 +2327,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>254.1666666666667</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
         <v>1.752418166666666</v>
       </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="31">
@@ -2520,21 +2356,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>324.3055555555555</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
         <v>2.236008972222222</v>
       </c>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>-3.800000000000004</v>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.505030842045159</v>
       </c>
     </row>
     <row r="32">
@@ -2554,21 +2385,16 @@
         <v>5.886161607147775e-06</v>
       </c>
       <c r="F32" t="n">
+        <v>413.1944444444445</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.848876527777778</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.9239766081871348</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.7776817465286306</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2.848876527777778</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.9239766081871348</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-3.511111111111116</v>
+      <c r="I32" t="n">
+        <v>2.314589900837048</v>
       </c>
     </row>
     <row r="33">
@@ -2588,21 +2414,16 @@
         <v>6.534255662072293e-05</v>
       </c>
       <c r="F33" t="n">
+        <v>527.7777777777777</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.638901111111111</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.8304093567251468</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.5537953490624933</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>3.638901111111111</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.8304093567251468</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-3.155555555555561</v>
+      <c r="I33" t="n">
+        <v>2.080201050119373</v>
       </c>
     </row>
     <row r="34">
@@ -2622,21 +2443,16 @@
         <v>0.0003152030236268633</v>
       </c>
       <c r="F34" t="n">
+        <v>690.2777777777777</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.759299611111111</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.7134502923976614</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.3417406416295192</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.759299611111111</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.7134502923976614</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-2.711111111111116</v>
+      <c r="I34" t="n">
+        <v>1.787214986722278</v>
       </c>
     </row>
     <row r="35">
@@ -2656,21 +2472,16 @@
         <v>0.001085668659793673</v>
       </c>
       <c r="F35" t="n">
+        <v>902.7777777777777</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.22443611111111</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.5672514619883048</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.1648186998405569</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>6.22443611111111</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.5672514619883048</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-2.15555555555556</v>
+      <c r="I35" t="n">
+        <v>1.42098240747591</v>
       </c>
     </row>
     <row r="36">
@@ -2690,21 +2501,16 @@
         <v>0.003013714923656761</v>
       </c>
       <c r="F36" t="n">
+        <v>1180.555555555555</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8.139647222222221</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.3918128654970764</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.05081480245083266</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>8.139647222222221</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.3918128654970764</v>
-      </c>
-      <c r="L36" t="n">
-        <v>-1.488888888888892</v>
+      <c r="I36" t="n">
+        <v>0.9815033123802678</v>
       </c>
     </row>
     <row r="37">
@@ -2724,21 +2530,16 @@
         <v>0.006739363565121123</v>
       </c>
       <c r="F37" t="n">
+        <v>1541.666666666667</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10.62942166666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.2046783625730996</v>
       </c>
-      <c r="G37" t="n">
-        <v>0.006444789693084281</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>10.62942166666667</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.2046783625730996</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-0.7777777777777792</v>
+      <c r="I37" t="n">
+        <v>0.5127256109449159</v>
       </c>
     </row>
     <row r="38">
@@ -2758,23 +2559,16 @@
         <v>0.01339647391588929</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2020.833333333333</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>13.93316083333333</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
       <c r="I38" t="n">
-        <v>0.02806633449715065</v>
-      </c>
-      <c r="J38" t="n">
-        <v>13.93316083333333</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2788,7 +2582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2837,13 +2631,18 @@
           <t>lambda_i</t>
         </is>
       </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Interpolated_Capillary_Pressure</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.8573092119321374</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2852,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2861,1284 +2660,1729 @@
         <v>1.337966498781228</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I2" t="n">
+        <v>324.3055555555555</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9951530612244898</v>
+        <v>0.9970521541950114</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.8572734230264929</v>
       </c>
       <c r="C3" t="n">
         <v>0.9498595798160701</v>
       </c>
       <c r="D3" t="n">
-        <v>5.790671909689595e-07</v>
+        <v>1.404735307048248e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.0009631286960820277</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.032987402987147e-07</v>
       </c>
       <c r="G3" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I3" t="n">
+        <v>338.5580534409448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9903061224489796</v>
+        <v>0.9941043083900227</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.8572376341208483</v>
       </c>
       <c r="C4" t="n">
         <v>0.901256586605455</v>
       </c>
       <c r="D4" t="n">
-        <v>4.561515105881927e-06</v>
+        <v>1.106559208119555e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.0009268834599994542</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>8.193739493303299e-07</v>
       </c>
       <c r="G4" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I4" t="n">
+        <v>352.9085371676617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9854591836734694</v>
+        <v>0.991156462585034</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.8572018452152038</v>
       </c>
       <c r="C5" t="n">
         <v>0.8541750869979027</v>
       </c>
       <c r="D5" t="n">
-        <v>1.515706892604639e-05</v>
+        <v>3.676891076518019e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.0008912666426204599</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.741648894129121e-06</v>
       </c>
       <c r="G5" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I5" t="n">
+        <v>367.359528435478</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9806122448979592</v>
+        <v>0.9882086167800453</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.8571660563095593</v>
       </c>
       <c r="C6" t="n">
         <v>0.8085989753985324</v>
       </c>
       <c r="D6" t="n">
-        <v>3.53675707568401e-05</v>
+        <v>8.579673678891535e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.0008562806544970416</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>6.442311833631616e-06</v>
       </c>
       <c r="G6" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I6" t="n">
+        <v>381.9135489441636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9757653061224489</v>
+        <v>0.9852607709750567</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.8571302674039147</v>
       </c>
       <c r="C7" t="n">
         <v>0.7645119683193073</v>
       </c>
       <c r="D7" t="n">
-        <v>6.799075103076837e-05</v>
+        <v>1.649359694612141e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.0008219279687285861</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.247217656967929e-05</v>
       </c>
       <c r="G7" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I7" t="n">
+        <v>396.5731203934902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9709183673469388</v>
+        <v>0.9823129251700681</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.8570944784982703</v>
       </c>
       <c r="C8" t="n">
         <v>0.7218975983929921</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001156240640334436</v>
+        <v>2.804876664146772e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0007882111240304563</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.136053743154295e-05</v>
       </c>
       <c r="G8" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I8" t="n">
+        <v>411.3407644832291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9660714285714286</v>
+        <v>0.9793650793650793</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.8570586895926257</v>
       </c>
       <c r="C9" t="n">
         <v>0.680739208044143</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001806685906501257</v>
+        <v>4.382765111181767e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.0007551327280273335</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.361501830204214e-05</v>
       </c>
       <c r="G9" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I9" t="n">
+        <v>426.1631756135298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9612244897959183</v>
+        <v>0.9764172335600907</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.8570229006869812</v>
       </c>
       <c r="C10" t="n">
         <v>0.6410199427889872</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0002653330116730765</v>
+        <v>6.436604515599208e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.0007226954607934714</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4.972141525409905e-05</v>
       </c>
       <c r="G10" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I10" t="n">
+        <v>440.9869871045507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9563775510204081</v>
+        <v>0.9734693877551021</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.8569871117813367</v>
       </c>
       <c r="C11" t="n">
         <v>0.6027227441330109</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0003716376552788296</v>
+        <v>9.015405188562681e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.0006909020786647917</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.014353232223194e-05</v>
       </c>
       <c r="G11" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I11" t="n">
+        <v>455.8697198747779</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.951530612244898</v>
+        <v>0.9705215419501134</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.8569513228756921</v>
       </c>
       <c r="C12" t="n">
         <v>0.56583034203162</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0005014186225832258</v>
+        <v>0.0001216370835266185</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.0006597554183509419</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>9.532300988324701e-05</v>
       </c>
       <c r="G12" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I12" t="n">
+        <v>470.8701807511946</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9466836734693878</v>
+        <v>0.9675736961451248</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.8569155339700476</v>
       </c>
       <c r="C13" t="n">
         <v>0.5303252468753167</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0006563319955149113</v>
+        <v>0.0001592168821898683</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.0006292584013791436</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.0001256791450632439</v>
       </c>
       <c r="G13" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I13" t="n">
+        <v>486.0471765607838</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9418367346938775</v>
+        <v>0.964625850340136</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.8568797450644031</v>
       </c>
       <c r="C14" t="n">
         <v>0.4961897409563384</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0008378581316199927</v>
+        <v>0.000203252561730297</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.0005994140389059455</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.0001616087035228546</v>
       </c>
       <c r="G14" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I14" t="n">
+        <v>501.4595141305293</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9369897959183673</v>
+        <v>0.9616780045351474</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.8568439561587585</v>
       </c>
       <c r="C15" t="n">
         <v>0.4634058693685669</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001047306050827526</v>
+        <v>0.0002540616719142621</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.0005702254369380026</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.0002034857218979732</v>
       </c>
       <c r="G15" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I15" t="n">
+        <v>517.166000287413</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9321428571428572</v>
+        <v>0.9587301587301588</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.856808167253114</v>
       </c>
       <c r="C16" t="n">
         <v>0.4319554302865987</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001285817919674488</v>
+        <v>0.0003119212862292699</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.0005416958020088577</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.0002516613000874154</v>
       </c>
       <c r="G16" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I16" t="n">
+        <v>533.2250849843944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9272959183673469</v>
+        <v>0.9557823129251701</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.8567723783474694</v>
       </c>
       <c r="C17" t="n">
         <v>0.4018199645630433</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00155437363901812</v>
+        <v>0.0003770691147982626</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.0005138284473655759</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.0003064633824799051</v>
       </c>
       <c r="G17" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I17" t="n">
+        <v>549.6584134267695</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9224489795918367</v>
+        <v>0.9528344671201814</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.856736589441825</v>
       </c>
       <c r="C18" t="n">
         <v>0.3729807445751984</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001853795541862973</v>
+        <v>0.0004497046440061817</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.0004866267997271947</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.0003681965270980166</v>
       </c>
       <c r="G18" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I18" t="n">
+        <v>566.4219296448206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9176020408163266</v>
+        <v>0.9498866213151927</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.8567008005361805</v>
       </c>
       <c r="C19" t="n">
         <v>0.3454187622430583</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002184753208611523</v>
+        <v>0.0005299903046118293</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.0004600944066865711</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.0004371416615030837</v>
       </c>
       <c r="G19" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I19" t="n">
+        <v>583.4649306428863</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9127551020408163</v>
+        <v>0.9469387755102041</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.8566650116305359</v>
       </c>
       <c r="C20" t="n">
         <v>0.3191147161298482</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002547768407825327</v>
+        <v>0.0006180526703068181</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.0004342349448386518</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.0005135558241488441</v>
       </c>
       <c r="G20" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I20" t="n">
+        <v>600.7367134253076</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9079081632653061</v>
+        <v>0.9439909297052155</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.8566292227248914</v>
       </c>
       <c r="C21" t="n">
         <v>0.2940489975236661</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002943220171475787</v>
+        <v>0.0007139836888998015</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.000409052228731903</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.0005976718896879203</v>
       </c>
       <c r="G21" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I21" t="n">
+        <v>618.1865749964239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9030612244897959</v>
+        <v>0.9410430839002268</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.8565934338192469</v>
       </c>
       <c r="C22" t="n">
         <v>0.2702016753839238</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003371350014691162</v>
+        <v>0.0008178419485534565</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.0003845502207561276</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.0006896982765182352</v>
       </c>
       <c r="G22" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I22" t="n">
+        <v>635.7638123605758</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8982142857142857</v>
+        <v>0.9380952380952381</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.8565576449136023</v>
       </c>
       <c r="C23" t="n">
         <v>0.2475524800186358</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003832267311195882</v>
+        <v>0.00092965398179022</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.0003607330420998665</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.0007898186345985951</v>
       </c>
       <c r="G23" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I23" t="n">
+        <v>653.4177225221035</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8933673469387755</v>
+        <v>0.9351473922902495</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.8565218560079578</v>
       </c>
       <c r="C24" t="n">
         <v>0.2260807853375762</v>
       </c>
       <c r="D24" t="n">
-        <v>0.004325954837022103</v>
+        <v>0.001049415610318499</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.0003376049849348929</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.0008981915112544255</v>
       </c>
       <c r="G24" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I24" t="n">
+        <v>671.0976024853461</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8885204081632653</v>
+        <v>0.9321995464852608</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.8564860671023133</v>
       </c>
       <c r="C25" t="n">
         <v>0.2057655895011081</v>
       </c>
       <c r="D25" t="n">
-        <v>0.004852274496692633</v>
+        <v>0.00117709333412386</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.0003151705260151176</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.001014949992323808</v>
       </c>
       <c r="G25" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I25" t="n">
+        <v>688.7527492546437</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.883673469387755</v>
+        <v>0.9292517006802722</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.8564502781966687</v>
       </c>
       <c r="C26" t="n">
         <v>0.1865854937540806</v>
       </c>
       <c r="D26" t="n">
-        <v>0.005410973247980184</v>
+        <v>0.001312625768732033</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.0002934343419140196</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.001140201315544731</v>
       </c>
       <c r="G26" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I26" t="n">
+        <v>706.3808166747477</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8788265306122449</v>
+        <v>0.9263038548752834</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8564144892910243</v>
       </c>
       <c r="C27" t="n">
         <v>0.1685186791972497</v>
       </c>
       <c r="D27" t="n">
-        <v>0.006001689243605548</v>
+        <v>0.00145592513509824</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.0002724013261704711</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.001274026452536338</v>
       </c>
       <c r="G27" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I27" t="n">
+        <v>724.0377419935021</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8739795918367347</v>
+        <v>0.9233560090702948</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.8563787003853797</v>
       </c>
       <c r="C28" t="n">
         <v>0.1515428812035098</v>
       </c>
       <c r="D28" t="n">
-        <v>0.006623958210930158</v>
+        <v>0.001606878807230596</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.0002520766086702077</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.001416479655052723</v>
       </c>
       <c r="G28" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I28" t="n">
+        <v>741.7379463404237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8691326530612244</v>
+        <v>0.9204081632653062</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.8563429114797352</v>
       </c>
       <c r="C29" t="n">
         <v>0.1356353611305438</v>
       </c>
       <c r="D29" t="n">
-        <v>0.007277220093934454</v>
+        <v>0.001765350923440362</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.0002324655776627382</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.001567587960351521</v>
       </c>
       <c r="G29" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I29" t="n">
+        <v>759.4954976829753</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8642857142857143</v>
+        <v>0.9174603174603175</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.8563071225740907</v>
       </c>
       <c r="C30" t="n">
         <v>0.1207728749123049</v>
       </c>
       <c r="D30" t="n">
-        <v>0.007960825985693564</v>
+        <v>0.001931184068062728</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.0002135739049061127</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.001727350649472534</v>
       </c>
       <c r="G30" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I30" t="n">
+        <v>777.3244639886184</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8594387755102041</v>
+        <v>0.9145124716553288</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.8562713336684461</v>
       </c>
       <c r="C31" t="n">
         <v>0.1069316380249645</v>
       </c>
       <c r="D31" t="n">
-        <v>0.008674045384352321</v>
+        <v>0.002104201031653984</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.0001954075745513823</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.001895738650897689</v>
       </c>
       <c r="G31" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I31" t="n">
+        <v>795.2389132248155</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8545918367346939</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.8562355447628016</v>
       </c>
       <c r="C32" t="n">
         <v>0.09408728621307294</v>
       </c>
       <c r="D32" t="n">
-        <v>0.009416073811511699</v>
+        <v>0.002284206659104587</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.0001779729165342933</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.002072693880371265</v>
       </c>
       <c r="G32" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I32" t="n">
+        <v>813.2529133590273</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8497448979591836</v>
+        <v>0.9086167800453515</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.8561997558571571</v>
       </c>
       <c r="C33" t="n">
         <v>0.0822148312210168</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01018604083930657</v>
+        <v>0.002470989796894971</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.0001612766454472032</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.002258128505470073</v>
       </c>
       <c r="G33" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I33" t="n">
+        <v>831.3805323587161</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8448979591836734</v>
+        <v>0.9056689342403629</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.8561639669515125</v>
       </c>
       <c r="C34" t="n">
         <v>0.07128861059269605</v>
       </c>
       <c r="D34" t="n">
-        <v>0.010983018581745</v>
+        <v>0.002664325352974659</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.000145325906138899</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.00245192412064422</v>
       </c>
       <c r="G34" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I34" t="n">
+        <v>849.6358381913437</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8400510204081633</v>
+        <v>0.9027210884353742</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.856128178045868</v>
       </c>
       <c r="C35" t="n">
         <v>0.06128223036337711</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01180603071774264</v>
+        <v>0.002863976485623106</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.0001301283276626241</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.002653930814634807</v>
       </c>
       <c r="G35" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I35" t="n">
+        <v>868.0328988243721</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.835204081632653</v>
+        <v>0.8997732426303855</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.8560923891402236</v>
       </c>
       <c r="C36" t="n">
         <v>0.05216849914969421</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0126540621286472</v>
+        <v>0.003069696941377167</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.0001156920877062802</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.002863966107022622</v>
       </c>
       <c r="G36" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I36" t="n">
+        <v>886.5857822252634</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8303571428571428</v>
+        <v>0.8968253968253969</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.856056600234579</v>
       </c>
       <c r="C37" t="n">
         <v>0.04391935171388404</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01352606925325131</v>
+        <v>0.003281233567011113</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.0001020259903595927</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.003081813723578169</v>
       </c>
       <c r="G37" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I37" t="n">
+        <v>905.3066758604733</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8255102040816327</v>
+        <v>0.8938775510204082</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.8560208113289345</v>
       </c>
       <c r="C38" t="n">
         <v>0.03650575948677037</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0144209912903296</v>
+        <v>0.003498329027114084</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>8.913956110497939e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.003307222170149102</v>
       </c>
       <c r="G38" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I38" t="n">
+        <v>924.08544525894</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.8206632653061224</v>
+        <v>0.8909297052154196</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.8559850224232899</v>
       </c>
       <c r="C39" t="n">
         <v>0.02989762470352158</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01533776241563987</v>
+        <v>0.003720724767762205</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>7.704316442992966e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.0035399030505739</v>
       </c>
       <c r="G39" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I39" t="n">
+        <v>942.8737334691274</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8158163265306122</v>
+        <v>0.887981859410431</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.8559492335176454</v>
       </c>
       <c r="C40" t="n">
         <v>0.02406365361350279</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0162753252318381</v>
+        <v>0.003948164279278209</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6.574815172875025e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.003779529053151398</v>
       </c>
       <c r="G40" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I40" t="n">
+        <v>961.7030786675462</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.810969387755102</v>
+        <v>0.8850340136054422</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.8559134446120009</v>
       </c>
       <c r="C41" t="n">
         <v>0.01897120246747925</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01723264574352589</v>
+        <v>0.004180396728966662</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>5.52670506735876e-05</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.004025731498447927</v>
       </c>
       <c r="G41" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I41" t="n">
+        <v>980.605019030708</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8061224489795917</v>
+        <v>0.8820861678004536</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.8558776557063563</v>
       </c>
       <c r="C42" t="n">
         <v>0.01458608731458326</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01820873025849461</v>
+        <v>0.004417181061117354</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>4.56138128568453e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.004278097291474474</v>
       </c>
       <c r="G42" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I42" t="n">
+        <v>999.6110927351226</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8012755102040816</v>
+        <v>0.8791383219954649</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.8558418668007118</v>
       </c>
       <c r="C43" t="n">
         <v>0.01087234443758272</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01920264478255982</v>
+        <v>0.004658290701918486</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>3.680414587566756e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.00453616504013589</v>
       </c>
       <c r="G43" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1018.752837957301</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7964285714285714</v>
+        <v>0.8761904761904763</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.8558060778950674</v>
       </c>
       <c r="C44" t="n">
         <v>0.007791921352687066</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0202135377404061</v>
+        <v>0.004903519071213064</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2.885597240624816e-05</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.004799419963091554</v>
       </c>
       <c r="G44" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1038.061792873755</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7915816326530611</v>
+        <v>0.8732426303854877</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.8557702889894228</v>
       </c>
       <c r="C45" t="n">
         <v>0.005304266370770438</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02124066729916923</v>
+        <v>0.005152686210814451</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2.179008916301162e-05</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.005067286958657635</v>
       </c>
       <c r="G45" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1057.569495660995</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.786734693877551</v>
+        <v>0.8702947845804989</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.8557345000837783</v>
       </c>
       <c r="C46" t="n">
         <v>0.003365762740659283</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02228343536499203</v>
+        <v>0.005405647031591156</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.563115911534809e-05</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.005339120716293729</v>
       </c>
       <c r="G46" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1077.307484495533</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.7818877551020408</v>
+        <v>0.8673469387755103</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.8556987111781337</v>
       </c>
       <c r="C47" t="n">
         <v>0.001928909454967851</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02334143185986506</v>
+        <v>0.005662302054403718</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1.040930270885572e-05</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.005614190703821046</v>
       </c>
       <c r="G47" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1097.307297553878</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.7770408163265305</v>
+        <v>0.8643990929705216</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.8556629222724892</v>
       </c>
       <c r="C48" t="n">
         <v>0.0009410527428545943</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02441449620609305</v>
+        <v>0.005922612325368785</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>6.162882706665465e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.005891656319630029</v>
       </c>
       <c r="G48" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1117.600473012542</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.7721938775510204</v>
+        <v>0.8614512471655329</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.8556271333668447</v>
       </c>
       <c r="C49" t="n">
         <v>0.0003422161344155867</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02550281132798697</v>
+        <v>0.006186622219343395</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>2.944059162536552e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.006170520089045592</v>
       </c>
       <c r="G49" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1138.218549048036</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.7673469387755102</v>
+        <v>0.8585034013605443</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.8555913444612001</v>
       </c>
       <c r="C50" t="n">
         <v>6.07140383664607e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02660707270104675</v>
+        <v>0.00645450044887165</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>8.32667143510156e-07</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.006449517574677576</v>
       </c>
       <c r="G50" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1159.19306383687</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7625</v>
+        <v>0.8555555555555556</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.8555555555555556</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02772893247436475</v>
+        <v>0.006726647802013854</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>0.006726647802013854</v>
       </c>
       <c r="G51" t="n">
         <v>1.337966498781228</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2.433105235538915</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1180.555555555555</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CB7B5A94B3B66459EB2A158AFFC5DBC" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ab064ae1c06d5d5cb1b59fac93aef9e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xmlns:ns3="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c0cefaab21e83ce2f7997d16a1f1916" ns2:_="" ns3:_="">
+    <xsd:import namespace="cbc615f2-4093-4ebd-a034-1df8eb5aaad9"/>
+    <xsd:import namespace="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:Project_x0020_Type" minOccurs="0"/>
+                <xsd:element ref="ns2:Project_x0020_Name" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="14" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Project_x0020_Type" ma:index="19" nillable="true" ma:displayName="Project Type" ma:default="Enter Choice #1" ma:format="Dropdown" ma:internalName="Project_x0020_Type">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Enter Choice #1"/>
+          <xsd:enumeration value="Enter Choice #2"/>
+          <xsd:enumeration value="Enter Choice #3"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Project_x0020_Name" ma:index="20" nillable="true" ma:displayName="Project Name" ma:internalName="Project_x0020_Name">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoice">
+            <xsd:sequence>
+              <xsd:element name="Value" maxOccurs="unbounded" minOccurs="0" nillable="true">
+                <xsd:simpleType>
+                  <xsd:restriction base="dms:Choice">
+                    <xsd:enumeration value="Sterling&amp;Adena"/>
+                    <xsd:enumeration value="Four Corners"/>
+                  </xsd:restriction>
+                </xsd:simpleType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="61128053-81a9-4f46-8667-b4595cb21c10" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="26" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{50fc448d-3904-4a19-944c-e0ed7da12a7c}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FA26D4-3718-4674-ADFA-B0622D6BBF6D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A53454F-1273-4BD4-8D1C-983BF4DC203F}"/>
 </file>